--- a/biology/Médecine/Idélalisib/Idélalisib.xlsx
+++ b/biology/Médecine/Idélalisib/Idélalisib.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Id%C3%A9lalisib</t>
+          <t>Idélalisib</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'idélalisib, ou CAL-101, est une molécule antagoniste de l'isoforme δ de la phosphoinositide 3-kinase en cours de test dans certains lymphomes et certaines leucémies.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Id%C3%A9lalisib</t>
+          <t>Idélalisib</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par l’inhibition de la phosphoinositide 3-kinase delta, l’idélalisib diminue la phosphorylation d'Akt et l'activation de m-TOR. Il cible donc la voie PI3K/AKT/mTOR impliqué dans la cancérogénèse de nombreuses néoplasies.
-Il augmente ainsi l'apoptose (via l'activation de la caspase)[4]. Il diminue le signal induit par la phosphoinositide 3-kinase située sur les lymphocytes B.
+Il augmente ainsi l'apoptose (via l'activation de la caspase). Il diminue le signal induit par la phosphoinositide 3-kinase située sur les lymphocytes B.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Id%C3%A9lalisib</t>
+          <t>Idélalisib</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,10 +558,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les lymphomes non hodgkiniens récidivant à croissance lente, on obtient une bonne réponse dans un cas sur deux[5].
-En combinaison avec le rituximab, l'idélalisib améliore la réponse et la survie des patients atteints de leucémie lymphoïde chronique récidivante[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les lymphomes non hodgkiniens récidivant à croissance lente, on obtient une bonne réponse dans un cas sur deux.
+En combinaison avec le rituximab, l'idélalisib améliore la réponse et la survie des patients atteints de leucémie lymphoïde chronique récidivante.
 </t>
         </is>
       </c>
